--- a/public/excel_files/masterlist-2015-03-19.xlsx
+++ b/public/excel_files/masterlist-2015-03-19.xlsx
@@ -1854,7 +1854,7 @@
         <v>143</v>
       </c>
       <c r="P10" s="44">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="44">
         <v>5</v>
@@ -2005,7 +2005,7 @@
         <v>143</v>
       </c>
       <c r="P11" s="42">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="42">
         <v>4</v>
@@ -2156,7 +2156,7 @@
         <v>143</v>
       </c>
       <c r="P12" s="42">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="42">
         <v>3</v>
@@ -2305,7 +2305,7 @@
         <v>143</v>
       </c>
       <c r="P13" s="43">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="43">
         <v>2</v>
@@ -2454,7 +2454,7 @@
         <v>143</v>
       </c>
       <c r="P14" s="39">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="39">
         <v>1</v>
@@ -2749,7 +2749,7 @@
         <v>715</v>
       </c>
       <c r="P18" s="97">
-        <v>-174</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="17"/>
       <c r="R18" s="97">
